--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW10.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha1F-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -949,16 +949,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9894216124101329</v>
+        <v>0.9894216124101333</v>
       </c>
       <c r="D13">
-        <v>0.9939417127373232</v>
+        <v>0.9939417127373235</v>
       </c>
       <c r="E13">
-        <v>0.9907191400909074</v>
+        <v>0.9907191400909077</v>
       </c>
       <c r="F13">
-        <v>0.9894216124101329</v>
+        <v>0.9894216124101333</v>
       </c>
       <c r="G13">
         <v>1.001245482278839</v>
@@ -970,16 +970,16 @@
         <v>0.9923555296373245</v>
       </c>
       <c r="J13">
-        <v>0.9939417127373232</v>
+        <v>0.9939417127373235</v>
       </c>
       <c r="K13">
-        <v>0.9923304264141153</v>
+        <v>0.9923304264141155</v>
       </c>
       <c r="L13">
-        <v>0.9908760194121241</v>
+        <v>0.9908760194121244</v>
       </c>
       <c r="M13">
-        <v>0.9924318806143937</v>
+        <v>0.992431880614394</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9868475117877518</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.66636463905608</v>
+      </c>
+      <c r="D16">
+        <v>2.284038275547505</v>
+      </c>
+      <c r="E16">
+        <v>0.4213586778482891</v>
+      </c>
+      <c r="F16">
+        <v>1.66636463905608</v>
+      </c>
+      <c r="G16">
+        <v>1.319409511752389</v>
+      </c>
+      <c r="H16">
+        <v>0.7193734977715674</v>
+      </c>
+      <c r="I16">
+        <v>0.7084720708245341</v>
+      </c>
+      <c r="J16">
+        <v>2.284038275547505</v>
+      </c>
+      <c r="K16">
+        <v>1.352698476697897</v>
+      </c>
+      <c r="L16">
+        <v>1.509531557876988</v>
+      </c>
+      <c r="M16">
+        <v>1.186502778800061</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.66636463905608</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW10.xlsx
@@ -952,16 +952,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9894216124101333</v>
+        <v>0.9894216124101329</v>
       </c>
       <c r="D13">
-        <v>0.9939417127373235</v>
+        <v>0.9939417127373232</v>
       </c>
       <c r="E13">
-        <v>0.9907191400909077</v>
+        <v>0.9907191400909074</v>
       </c>
       <c r="F13">
-        <v>0.9894216124101333</v>
+        <v>0.9894216124101329</v>
       </c>
       <c r="G13">
         <v>1.001245482278839</v>
@@ -973,16 +973,16 @@
         <v>0.9923555296373245</v>
       </c>
       <c r="J13">
-        <v>0.9939417127373235</v>
+        <v>0.9939417127373232</v>
       </c>
       <c r="K13">
-        <v>0.9923304264141155</v>
+        <v>0.9923304264141153</v>
       </c>
       <c r="L13">
-        <v>0.9908760194121244</v>
+        <v>0.9908760194121241</v>
       </c>
       <c r="M13">
-        <v>0.992431880614394</v>
+        <v>0.9924318806143937</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.03339599999999845</v>
+        <v>1.66636463905608</v>
       </c>
       <c r="D10">
-        <v>2.626315999999997</v>
+        <v>2.284038275547505</v>
       </c>
       <c r="E10">
-        <v>0.8468600000000013</v>
+        <v>0.4213586778482891</v>
       </c>
       <c r="F10">
-        <v>0.03339599999999845</v>
+        <v>1.66636463905608</v>
       </c>
       <c r="G10">
-        <v>1.617516</v>
+        <v>1.319409511752389</v>
       </c>
       <c r="H10">
-        <v>1.084823999999998</v>
+        <v>0.7193734977715674</v>
       </c>
       <c r="I10">
-        <v>0.4687520000000004</v>
+        <v>0.7084720708245341</v>
       </c>
       <c r="J10">
-        <v>2.626315999999997</v>
+        <v>2.284038275547505</v>
       </c>
       <c r="K10">
-        <v>1.736587999999999</v>
+        <v>1.352698476697897</v>
       </c>
       <c r="L10">
-        <v>0.8849919999999987</v>
+        <v>1.509531557876988</v>
       </c>
       <c r="M10">
-        <v>1.112943999999999</v>
+        <v>1.186502778800061</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.8694892747283528</v>
       </c>
       <c r="D11">
-        <v>2.688625000000001</v>
+        <v>1.616730401604222</v>
       </c>
       <c r="E11">
-        <v>0.3101375</v>
+        <v>1.193267150561191</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.8694892747283528</v>
       </c>
       <c r="G11">
-        <v>2.331137499999994</v>
+        <v>0.5242297349077162</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.698049367619953</v>
       </c>
       <c r="I11">
-        <v>0.16</v>
+        <v>0.8927328530385661</v>
       </c>
       <c r="J11">
-        <v>2.688625000000001</v>
+        <v>1.616730401604222</v>
       </c>
       <c r="K11">
-        <v>1.499381250000001</v>
+        <v>1.404998776082707</v>
       </c>
       <c r="L11">
-        <v>0.7496906250000004</v>
+        <v>1.13724402540553</v>
       </c>
       <c r="M11">
-        <v>0.9149833333333325</v>
+        <v>1.29908313041</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4033276195839986</v>
+        <v>0.8675595687726367</v>
       </c>
       <c r="D12">
-        <v>2.045043471462396</v>
+        <v>1.626252271051958</v>
       </c>
       <c r="E12">
-        <v>0.6026573177855999</v>
+        <v>1.195316210947415</v>
       </c>
       <c r="F12">
-        <v>0.4033276195839986</v>
+        <v>0.8675595687726367</v>
       </c>
       <c r="G12">
-        <v>1.779536449331192</v>
+        <v>0.5247319076382049</v>
       </c>
       <c r="H12">
-        <v>0.4065127591936034</v>
+        <v>2.701506108949616</v>
       </c>
       <c r="I12">
-        <v>0.5169440206848016</v>
+        <v>0.8910329382874577</v>
       </c>
       <c r="J12">
-        <v>2.045043471462396</v>
+        <v>1.626252271051958</v>
       </c>
       <c r="K12">
-        <v>1.323850394623998</v>
+        <v>1.410784240999686</v>
       </c>
       <c r="L12">
-        <v>0.8635890071039984</v>
+        <v>1.139171904886161</v>
       </c>
       <c r="M12">
-        <v>0.9590036063402655</v>
+        <v>1.301066500941215</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9894216124101329</v>
+        <v>0.868348594528921</v>
       </c>
       <c r="D13">
-        <v>0.9939417127373232</v>
+        <v>1.623752343166865</v>
       </c>
       <c r="E13">
-        <v>0.9907191400909074</v>
+        <v>1.194378760251365</v>
       </c>
       <c r="F13">
-        <v>0.9894216124101329</v>
+        <v>0.868348594528921</v>
       </c>
       <c r="G13">
-        <v>1.001245482278839</v>
+        <v>0.5234808631428263</v>
       </c>
       <c r="H13">
-        <v>0.9869078065318353</v>
+        <v>2.697386664723736</v>
       </c>
       <c r="I13">
-        <v>0.9923555296373245</v>
+        <v>0.8928245424531979</v>
       </c>
       <c r="J13">
-        <v>0.9939417127373232</v>
+        <v>1.623752343166865</v>
       </c>
       <c r="K13">
-        <v>0.9923304264141153</v>
+        <v>1.409065551709115</v>
       </c>
       <c r="L13">
-        <v>0.9908760194121241</v>
+        <v>1.138707073119018</v>
       </c>
       <c r="M13">
-        <v>0.9924318806143937</v>
+        <v>1.300028628044485</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.190070044827548</v>
+        <v>0.03339599999999845</v>
       </c>
       <c r="D14">
-        <v>0.7365972113002464</v>
+        <v>2.626315999999997</v>
       </c>
       <c r="E14">
-        <v>1.014202346751854</v>
+        <v>0.8468600000000013</v>
       </c>
       <c r="F14">
-        <v>1.190070044827548</v>
+        <v>0.03339599999999845</v>
       </c>
       <c r="G14">
-        <v>0.8909630636550357</v>
+        <v>1.617516</v>
       </c>
       <c r="H14">
-        <v>1.11238213258114</v>
+        <v>1.084823999999998</v>
       </c>
       <c r="I14">
-        <v>0.9586304662879314</v>
+        <v>0.4687520000000004</v>
       </c>
       <c r="J14">
-        <v>0.7365972113002464</v>
+        <v>2.626315999999997</v>
       </c>
       <c r="K14">
-        <v>0.8753997790260503</v>
+        <v>1.736587999999999</v>
       </c>
       <c r="L14">
-        <v>1.032734911926799</v>
+        <v>0.8849919999999987</v>
       </c>
       <c r="M14">
-        <v>0.9838075442339593</v>
+        <v>1.112943999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.074911693225758</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7052513677721831</v>
+        <v>2.688625000000001</v>
       </c>
       <c r="E15">
-        <v>1.063920164590017</v>
+        <v>0.3101375</v>
       </c>
       <c r="F15">
-        <v>1.074911693225758</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8232938332474752</v>
+        <v>2.331137499999994</v>
       </c>
       <c r="H15">
-        <v>1.184363173749573</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.069344838141505</v>
+        <v>0.16</v>
       </c>
       <c r="J15">
-        <v>0.7052513677721831</v>
+        <v>2.688625000000001</v>
       </c>
       <c r="K15">
-        <v>0.8845857661811001</v>
+        <v>1.499381250000001</v>
       </c>
       <c r="L15">
-        <v>0.9797487297034289</v>
+        <v>0.7496906250000004</v>
       </c>
       <c r="M15">
-        <v>0.9868475117877518</v>
+        <v>0.9149833333333325</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.66636463905608</v>
+        <v>0.4033276195839986</v>
       </c>
       <c r="D16">
-        <v>2.284038275547505</v>
+        <v>2.045043471462396</v>
       </c>
       <c r="E16">
-        <v>0.4213586778482891</v>
+        <v>0.6026573177855999</v>
       </c>
       <c r="F16">
-        <v>1.66636463905608</v>
+        <v>0.4033276195839986</v>
       </c>
       <c r="G16">
-        <v>1.319409511752389</v>
+        <v>1.779536449331192</v>
       </c>
       <c r="H16">
-        <v>0.7193734977715674</v>
+        <v>0.4065127591936034</v>
       </c>
       <c r="I16">
-        <v>0.7084720708245341</v>
+        <v>0.5169440206848016</v>
       </c>
       <c r="J16">
-        <v>2.284038275547505</v>
+        <v>2.045043471462396</v>
       </c>
       <c r="K16">
-        <v>1.352698476697897</v>
+        <v>1.323850394623998</v>
       </c>
       <c r="L16">
-        <v>1.509531557876988</v>
+        <v>0.8635890071039984</v>
       </c>
       <c r="M16">
-        <v>1.186502778800061</v>
+        <v>0.9590036063402655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9894216124101333</v>
+      </c>
+      <c r="D17">
+        <v>0.9939417127373235</v>
+      </c>
+      <c r="E17">
+        <v>0.9907191400909077</v>
+      </c>
+      <c r="F17">
+        <v>0.9894216124101333</v>
+      </c>
+      <c r="G17">
+        <v>1.001245482278839</v>
+      </c>
+      <c r="H17">
+        <v>0.9869078065318353</v>
+      </c>
+      <c r="I17">
+        <v>0.9923555296373245</v>
+      </c>
+      <c r="J17">
+        <v>0.9939417127373235</v>
+      </c>
+      <c r="K17">
+        <v>0.9923304264141155</v>
+      </c>
+      <c r="L17">
+        <v>0.9908760194121244</v>
+      </c>
+      <c r="M17">
+        <v>0.992431880614394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.190070044827548</v>
+      </c>
+      <c r="D18">
+        <v>0.7365972113002464</v>
+      </c>
+      <c r="E18">
+        <v>1.014202346751854</v>
+      </c>
+      <c r="F18">
+        <v>1.190070044827548</v>
+      </c>
+      <c r="G18">
+        <v>0.8909630636550357</v>
+      </c>
+      <c r="H18">
+        <v>1.11238213258114</v>
+      </c>
+      <c r="I18">
+        <v>0.9586304662879314</v>
+      </c>
+      <c r="J18">
+        <v>0.7365972113002464</v>
+      </c>
+      <c r="K18">
+        <v>0.8753997790260503</v>
+      </c>
+      <c r="L18">
+        <v>1.032734911926799</v>
+      </c>
+      <c r="M18">
+        <v>0.9838075442339593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.074911693225758</v>
+      </c>
+      <c r="D19">
+        <v>0.7052513677721831</v>
+      </c>
+      <c r="E19">
+        <v>1.063920164590017</v>
+      </c>
+      <c r="F19">
+        <v>1.074911693225758</v>
+      </c>
+      <c r="G19">
+        <v>0.8232938332474752</v>
+      </c>
+      <c r="H19">
+        <v>1.184363173749573</v>
+      </c>
+      <c r="I19">
+        <v>1.069344838141505</v>
+      </c>
+      <c r="J19">
+        <v>0.7052513677721831</v>
+      </c>
+      <c r="K19">
+        <v>0.8845857661811001</v>
+      </c>
+      <c r="L19">
+        <v>0.9797487297034289</v>
+      </c>
+      <c r="M19">
+        <v>0.9868475117877518</v>
       </c>
     </row>
   </sheetData>
